--- a/x-IMU3-Thermometer-PCB/Project Outputs for x-IMU3-Thermometer/BOM/Bill of Materials-x-IMU3-Thermometer.xlsx
+++ b/x-IMU3-Thermometer-PCB/Project Outputs for x-IMU3-Thermometer/BOM/Bill of Materials-x-IMU3-Thermometer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\x-io\Products\x-IMU3\x-IMU3-Thermometer\x-IMU3-Thermometer-PCB\Project Outputs for x-IMU3-Thermometer\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C315279-0C71-4DAD-B738-D3047DE6D245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF5C8789-9F69-4884-B514-C7C0947B7BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21560" yWindow="4680" windowWidth="21360" windowHeight="16720" xr2:uid="{294743C5-0246-4FBE-87B7-908F8AE11F6A}"/>
+    <workbookView xWindow="-35680" yWindow="3430" windowWidth="15060" windowHeight="13190" xr2:uid="{A1A12005-6301-4F3B-9369-EBBD5941A544}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-x-IMU3-Thermo" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>Designator</t>
   </si>
@@ -51,7 +51,7 @@
     <t>Footprint</t>
   </si>
   <si>
-    <t>C1, C2, C3, C7</t>
+    <t>C1, C2, C6</t>
   </si>
   <si>
     <t>100nF</t>
@@ -60,7 +60,7 @@
     <t>Capacitor 0402</t>
   </si>
   <si>
-    <t>C4, C5, C6</t>
+    <t>C3, C4, C5</t>
   </si>
   <si>
     <t>10uF</t>
@@ -87,6 +87,9 @@
     <t>J1</t>
   </si>
   <si>
+    <t>DNP</t>
+  </si>
+  <si>
     <t>Tag Connect No Legs</t>
   </si>
   <si>
@@ -136,15 +139,6 @@
   </si>
   <si>
     <t>WSON-6</t>
-  </si>
-  <si>
-    <t>Y1</t>
-  </si>
-  <si>
-    <t>ECS-TXO-2520-33-240-AN-TR</t>
-  </si>
-  <si>
-    <t>ECS 2x2.5mm</t>
   </si>
 </sst>
 </file>
@@ -520,8 +514,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58636DFF-D378-43ED-B041-190C9BF9C4DC}">
-  <dimension ref="A1:D13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD9FC55-E8BB-4F04-B1B1-9F7040BD8CEF}">
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,7 +546,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
@@ -614,105 +608,91 @@
         <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1">
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/x-IMU3-Thermometer-PCB/Project Outputs for x-IMU3-Thermometer/BOM/Bill of Materials-x-IMU3-Thermometer.xlsx
+++ b/x-IMU3-Thermometer-PCB/Project Outputs for x-IMU3-Thermometer/BOM/Bill of Materials-x-IMU3-Thermometer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\x-io\Products\x-IMU3\x-IMU3-Thermometer\x-IMU3-Thermometer-PCB\Project Outputs for x-IMU3-Thermometer\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF5C8789-9F69-4884-B514-C7C0947B7BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{197A4CD1-962A-4002-8B2E-77916D67E7C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35680" yWindow="3430" windowWidth="15060" windowHeight="13190" xr2:uid="{A1A12005-6301-4F3B-9369-EBBD5941A544}"/>
+    <workbookView xWindow="-24910" yWindow="2370" windowWidth="24840" windowHeight="19140" xr2:uid="{A5411F50-D2B3-4B3D-AC20-F081BA6610B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-x-IMU3-Thermo" sheetId="1" r:id="rId1"/>
@@ -514,7 +514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD9FC55-E8BB-4F04-B1B1-9F7040BD8CEF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2498308-CD39-43D8-95DE-157F83DA8068}">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
